--- a/gsinfosite/data/box/1/2017_1_湖北重点库_word/1-02-217-10.xlsx
+++ b/gsinfosite/data/box/1/2017_1_湖北重点库_word/1-02-217-10.xlsx
@@ -22,7 +22,7 @@
     <t>金（银）锭类信息档案</t>
   </si>
   <si>
-    <t>填表日期:2017年08月18日</t>
+    <t>填表日期:2017年08月31日</t>
   </si>
   <si>
     <t>装   订   线</t>
@@ -43,7 +43,7 @@
     <t>箱   号</t>
   </si>
   <si>
-    <t>小红</t>
+    <t>小李</t>
   </si>
   <si>
     <t>品   名</t>
@@ -67,31 +67,31 @@
     <t>名   称</t>
   </si>
   <si>
-    <t>金锭</t>
+    <t>服</t>
   </si>
   <si>
     <t>型制类型</t>
   </si>
   <si>
-    <t>金元宝</t>
+    <t>人体宴</t>
   </si>
   <si>
     <t>时  代</t>
   </si>
   <si>
-    <t>明代</t>
+    <t>而已嘛</t>
   </si>
   <si>
     <t>制造地/制作人</t>
   </si>
   <si>
-    <t>河南</t>
+    <t>r7m</t>
   </si>
   <si>
     <t>铭   文</t>
   </si>
   <si>
-    <t>见覅花</t>
+    <t>er6</t>
   </si>
   <si>
     <t>毛 重（g）</t>
@@ -124,19 +124,19 @@
     <t>品   相</t>
   </si>
   <si>
-    <t>中</t>
+    <t>好</t>
   </si>
   <si>
     <t>评价等级</t>
   </si>
   <si>
-    <t>B</t>
+    <t>A</t>
   </si>
   <si>
     <t>备   注</t>
   </si>
   <si>
-    <t>无</t>
+    <t xml:space="preserve">8弹框， </t>
   </si>
 </sst>
 </file>
@@ -1348,8 +1348,12 @@
         <v>26</v>
       </c>
       <c r="D14" s="25" t="n"/>
-      <c r="E14" s="24" t="n"/>
-      <c r="F14" s="24" t="s"/>
+      <c r="E14" s="24" t="n">
+        <v>56</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row customHeight="1" ht="27.95" r="15" s="1" spans="1:6">
       <c r="B15" s="24" t="n">
@@ -1377,7 +1381,9 @@
         <v>29</v>
       </c>
       <c r="E16" s="24" t="n"/>
-      <c r="F16" s="24" t="s"/>
+      <c r="F16" s="24" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row customHeight="1" ht="27.95" r="17" s="1" spans="1:6">
       <c r="B17" s="24" t="n">
@@ -1388,7 +1394,9 @@
       </c>
       <c r="D17" s="25" t="n"/>
       <c r="E17" s="24" t="n"/>
-      <c r="F17" s="24" t="s"/>
+      <c r="F17" s="24" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row customHeight="1" ht="27.95" r="18" s="1" spans="1:6">
       <c r="B18" s="24" t="n">
@@ -1400,8 +1408,12 @@
       <c r="D18" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="24" t="n"/>
-      <c r="F18" s="24" t="s"/>
+      <c r="E18" s="24" t="n">
+        <v>46</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row customHeight="1" ht="27.95" r="19" s="1" spans="1:6">
       <c r="B19" s="24" t="n">
@@ -1411,7 +1423,9 @@
       <c r="D19" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="24" t="n"/>
+      <c r="E19" s="24" t="n">
+        <v>46</v>
+      </c>
       <c r="F19" s="25" t="n"/>
     </row>
     <row customHeight="1" ht="27.95" r="20" s="1" spans="1:6">
@@ -1422,7 +1436,9 @@
       <c r="D20" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="24" t="n"/>
+      <c r="E20" s="24" t="n">
+        <v>46</v>
+      </c>
       <c r="F20" s="25" t="n"/>
     </row>
     <row customHeight="1" ht="27.95" r="21" s="1" spans="1:6">
